--- a/data/trans_camb/P71_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P71_R-Provincia-trans_camb.xlsx
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>19,43; 33,74</t>
+          <t>19,56; 33,67</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-10,02; -1,13</t>
+          <t>-10,4; -1,13</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,62; 23,01</t>
+          <t>8,84; 23,29</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-12,45; -1,29</t>
+          <t>-12,21; -0,89</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>16,22; 26,96</t>
+          <t>16,48; 26,61</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-9,37; -2,26</t>
+          <t>-9,53; -2,15</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>142,56; 433,61</t>
+          <t>136,17; 432,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-73,1; -11,06</t>
+          <t>-73,54; -8,21</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>53,12; 195,62</t>
+          <t>46,19; 195,45</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-66,06; -10,21</t>
+          <t>-64,03; -5,65</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>107,55; 255,77</t>
+          <t>106,0; 250,86</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-62,58; -21,04</t>
+          <t>-62,92; -18,87</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>22,85; 34,88</t>
+          <t>22,49; 34,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,12; 22,19</t>
+          <t>9,61; 21,57</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-16,88; -5,61</t>
+          <t>-16,91; -6,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>14,25; 27,01</t>
+          <t>14,79; 27,63</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,02; 12,94</t>
+          <t>0,61; 12,87</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-26,8; -16,56</t>
+          <t>-26,33; -16,26</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>20,07; 29,16</t>
+          <t>20,91; 29,28</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,9; 15,57</t>
+          <t>7,07; 15,39</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-20,09; -12,76</t>
+          <t>-20,01; -12,8</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>84,38; 163,4</t>
+          <t>80,64; 158,92</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>37,45; 102,94</t>
+          <t>34,63; 99,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-62,96; -26,19</t>
+          <t>-62,4; -28,08</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>37,56; 84,26</t>
+          <t>38,42; 87,49</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,91; 42,1</t>
+          <t>1,45; 41,18</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-69,7; -50,93</t>
+          <t>-68,59; -51,11</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>62,36; 105,37</t>
+          <t>65,08; 106,96</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>21,77; 55,94</t>
+          <t>22,24; 55,87</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-63,29; -46,06</t>
+          <t>-63,28; -45,75</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,5; 5,33</t>
+          <t>-6,18; 5,75</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,66; 14,25</t>
+          <t>1,85; 14,27</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,15; 4,5</t>
+          <t>-7,02; 4,75</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-17,51; -4,94</t>
+          <t>-17,57; -4,78</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 13,64</t>
+          <t>0,61; 14,62</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-12,19; 0,55</t>
+          <t>-11,76; -0,44</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-10,12; -1,49</t>
+          <t>-10,08; -1,65</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,65; 12,47</t>
+          <t>2,58; 12,38</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-7,95; 0,72</t>
+          <t>-7,92; 0,49</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-34,21; 41,11</t>
+          <t>-31,71; 43,87</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,73; 110,78</t>
+          <t>8,45; 110,7</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-37,5; 34,37</t>
+          <t>-36,79; 36,79</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-59,96; -22,15</t>
+          <t>-60,58; -21,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 63,51</t>
+          <t>2,24; 68,22</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-42,62; 2,29</t>
+          <t>-40,66; -1,96</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-42,86; -7,57</t>
+          <t>-43,52; -8,98</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>11,57; 66,14</t>
+          <t>10,63; 66,42</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-32,73; 4,51</t>
+          <t>-34,32; 2,67</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>14,36; 24,59</t>
+          <t>14,69; 24,42</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>12,0; 24,24</t>
+          <t>12,36; 24,1</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,63; 5,05</t>
+          <t>-6,0; 5,05</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,9; 14,08</t>
+          <t>3,25; 14,24</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>9,09; 22,73</t>
+          <t>8,52; 21,86</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,61; 9,6</t>
+          <t>-6,53; 10,66</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>10,09; 17,6</t>
+          <t>9,98; 17,58</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>12,51; 21,36</t>
+          <t>12,64; 21,94</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 6,7</t>
+          <t>-4,9; 6,7</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>90,71; 255,87</t>
+          <t>97,58; 264,29</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>80,59; 254,28</t>
+          <t>83,07; 249,98</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-46,05; 50,13</t>
+          <t>-44,5; 53,71</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>10,75; 70,76</t>
+          <t>11,85; 74,39</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>36,18; 114,09</t>
+          <t>33,19; 108,97</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-26,85; 47,02</t>
+          <t>-25,94; 48,21</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>51,9; 113,67</t>
+          <t>49,01; 112,49</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>64,01; 137,89</t>
+          <t>63,7; 140,81</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-23,27; 40,95</t>
+          <t>-26,1; 40,82</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>10,85; 28,98</t>
+          <t>9,7; 26,69</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>38,43; 55,17</t>
+          <t>37,37; 54,83</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-15,46; -3,93</t>
+          <t>-15,98; -4,39</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>6,38; 23,97</t>
+          <t>5,7; 23,53</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>36,69; 53,57</t>
+          <t>36,9; 54,14</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-21,83; -9,33</t>
+          <t>-22,22; -8,91</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>10,61; 22,76</t>
+          <t>11,0; 23,14</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>39,55; 52,08</t>
+          <t>39,57; 51,65</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-17,05; -8,27</t>
+          <t>-17,08; -8,33</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>53,26; 255,83</t>
+          <t>49,39; 248,74</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>201,92; 532,85</t>
+          <t>186,88; 499,61</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-81,58; -28,02</t>
+          <t>-83,97; -34,23</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>24,82; 145,82</t>
+          <t>24,31; 137,42</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>141,94; 340,31</t>
+          <t>142,7; 329,39</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-84,8; -54,19</t>
+          <t>-84,41; -51,22</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>49,88; 153,15</t>
+          <t>52,73; 151,58</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>176,65; 345,6</t>
+          <t>184,05; 346,51</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-80,38; -54,12</t>
+          <t>-79,75; -53,48</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-10,26; 2,79</t>
+          <t>-11,16; 2,48</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-9,5; 5,19</t>
+          <t>-8,77; 5,0</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-14,42; -2,3</t>
+          <t>-15,04; -2,99</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-23,84; -9,79</t>
+          <t>-24,35; -9,8</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-20,72; -6,23</t>
+          <t>-21,45; -6,33</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-23,59; -10,63</t>
+          <t>-24,3; -10,4</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-15,22; -5,77</t>
+          <t>-15,57; -5,4</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-13,09; -2,65</t>
+          <t>-13,27; -3,0</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-17,08; -8,47</t>
+          <t>-17,48; -8,4</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-44,1; 16,14</t>
+          <t>-45,7; 15,05</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-38,77; 29,25</t>
+          <t>-36,45; 29,37</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-60,51; -13,18</t>
+          <t>-62,05; -16,04</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-66,54; -32,63</t>
+          <t>-66,81; -35,18</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-58,25; -21,07</t>
+          <t>-59,23; -22,25</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-64,59; -37,52</t>
+          <t>-65,46; -37,22</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-52,56; -23,38</t>
+          <t>-53,29; -22,34</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-44,6; -10,73</t>
+          <t>-45,66; -12,12</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-58,88; -35,1</t>
+          <t>-59,87; -35,48</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 6,0</t>
+          <t>-3,63; 5,48</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>4,84; 15,49</t>
+          <t>5,42; 15,26</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-12,56; -3,21</t>
+          <t>-11,79; -3,53</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-15,54; -5,59</t>
+          <t>-16,37; -5,97</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-6,36; 4,14</t>
+          <t>-6,82; 4,15</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-28,4; -17,54</t>
+          <t>-28,39; -17,32</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-8,71; -1,43</t>
+          <t>-8,57; -1,46</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>0,41; 7,91</t>
+          <t>0,39; 8,27</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-19,0; -11,58</t>
+          <t>-19,12; -11,67</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-17,99; 33,59</t>
+          <t>-17,0; 31,24</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>21,32; 88,88</t>
+          <t>24,15; 86,51</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-53,73; -16,39</t>
+          <t>-53,39; -19,13</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-41,57; -17,29</t>
+          <t>-43,07; -18,59</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-16,81; 13,42</t>
+          <t>-18,43; 12,99</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-79,52; -54,76</t>
+          <t>-78,8; -54,32</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-29,13; -5,73</t>
+          <t>-29,67; -6,13</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>1,67; 31,01</t>
+          <t>1,31; 33,0</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-65,34; -45,02</t>
+          <t>-65,84; -46,09</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>10,04; 19,2</t>
+          <t>10,06; 18,83</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>10,21; 19,22</t>
+          <t>10,64; 19,31</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 4,7</t>
+          <t>-4,66; 4,44</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>4,01; 13,37</t>
+          <t>4,12; 13,8</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>2,38; 11,85</t>
+          <t>2,31; 11,59</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-7,79; 1,12</t>
+          <t>-7,0; 1,53</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>8,51; 15,09</t>
+          <t>8,22; 14,82</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>7,58; 14,05</t>
+          <t>7,39; 14,02</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 1,53</t>
+          <t>-4,7; 1,41</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>49,18; 116,11</t>
+          <t>49,22; 115,27</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>48,71; 116,26</t>
+          <t>52,24; 117,35</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-21,45; 28,58</t>
+          <t>-22,77; 25,64</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>14,03; 57,73</t>
+          <t>14,14; 59,95</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>8,35; 51,31</t>
+          <t>8,34; 49,45</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-28,55; 5,01</t>
+          <t>-25,48; 6,55</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>34,92; 74,27</t>
+          <t>34,8; 71,16</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>32,03; 69,09</t>
+          <t>31,92; 67,87</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-21,43; 7,71</t>
+          <t>-19,57; 7,06</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>10,5; 14,8</t>
+          <t>10,37; 14,71</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>13,03; 17,53</t>
+          <t>13,31; 17,57</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-6,88; -2,98</t>
+          <t>-6,75; -2,83</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>1,62; 6,09</t>
+          <t>1,52; 6,06</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>5,67; 10,15</t>
+          <t>5,74; 10,18</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-14,28; -9,47</t>
+          <t>-14,41; -9,71</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>6,64; 9,61</t>
+          <t>6,49; 9,64</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>9,96; 13,08</t>
+          <t>9,92; 13,29</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-9,91; -6,71</t>
+          <t>-9,77; -6,93</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>54,05; 86,69</t>
+          <t>54,31; 85,81</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>68,16; 103,49</t>
+          <t>69,72; 101,54</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-36,14; -17,46</t>
+          <t>-35,28; -16,22</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>5,37; 22,54</t>
+          <t>5,35; 23,43</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>19,59; 37,85</t>
+          <t>20,08; 38,01</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-49,8; -35,72</t>
+          <t>-49,61; -35,9</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>27,52; 42,98</t>
+          <t>27,13; 43,57</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>41,99; 58,88</t>
+          <t>42,06; 59,64</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-41,29; -30,13</t>
+          <t>-41,33; -30,62</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P71_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P71_R-Provincia-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>19,56; 33,67</t>
+          <t>19,08; 32,51</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-10,4; -1,13</t>
+          <t>-10,68; -1,37</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,84; 23,29</t>
+          <t>9,04; 23,77</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-12,21; -0,89</t>
+          <t>-11,67; -0,81</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>16,48; 26,61</t>
+          <t>16,84; 26,6</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-9,53; -2,15</t>
+          <t>-9,56; -2,47</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>136,17; 432,9</t>
+          <t>132,12; 399,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-73,54; -8,21</t>
+          <t>-77,19; -13,92</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>46,19; 195,45</t>
+          <t>47,97; 211,65</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-64,03; -5,65</t>
+          <t>-63,17; -2,01</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>106,0; 250,86</t>
+          <t>108,47; 251,36</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-62,92; -18,87</t>
+          <t>-62,76; -21,1</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>22,49; 34,32</t>
+          <t>22,79; 35,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,61; 21,57</t>
+          <t>9,41; 22,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-16,91; -6,74</t>
+          <t>-16,81; -6,01</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>14,79; 27,63</t>
+          <t>14,85; 27,61</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,61; 12,87</t>
+          <t>0,19; 12,7</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-26,33; -16,26</t>
+          <t>-26,23; -16,07</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>20,91; 29,28</t>
+          <t>20,33; 29,06</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,07; 15,39</t>
+          <t>7,28; 15,65</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-20,01; -12,8</t>
+          <t>-20,3; -13,01</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>80,64; 158,92</t>
+          <t>81,2; 164,17</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>34,63; 99,46</t>
+          <t>32,08; 101,62</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-62,4; -28,08</t>
+          <t>-61,88; -27,36</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>38,42; 87,49</t>
+          <t>37,95; 86,71</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,45; 41,18</t>
+          <t>0,61; 40,46</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-68,59; -51,11</t>
+          <t>-68,67; -50,85</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>65,08; 106,96</t>
+          <t>63,57; 105,88</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>22,24; 55,87</t>
+          <t>23,02; 56,63</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-63,28; -45,75</t>
+          <t>-63,1; -45,96</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,18; 5,75</t>
+          <t>-6,07; 6,27</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,85; 14,27</t>
+          <t>1,63; 14,51</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,02; 4,75</t>
+          <t>-6,61; 4,77</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-17,57; -4,78</t>
+          <t>-17,05; -4,33</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,61; 14,62</t>
+          <t>0,04; 14,33</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-11,76; -0,44</t>
+          <t>-12,39; -0,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-10,08; -1,65</t>
+          <t>-10,03; -1,42</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,58; 12,38</t>
+          <t>2,59; 12,31</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-7,92; 0,49</t>
+          <t>-7,72; 0,35</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-31,71; 43,87</t>
+          <t>-31,79; 47,7</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8,45; 110,7</t>
+          <t>7,94; 113,13</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-36,79; 36,79</t>
+          <t>-35,25; 38,11</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-60,58; -21,0</t>
+          <t>-60,03; -19,69</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,24; 68,22</t>
+          <t>-0,35; 64,97</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-40,66; -1,96</t>
+          <t>-41,97; 0,08</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-43,52; -8,98</t>
+          <t>-43,47; -7,45</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>10,63; 66,42</t>
+          <t>10,52; 65,13</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-34,32; 2,67</t>
+          <t>-32,98; 2,44</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>14,69; 24,42</t>
+          <t>14,35; 24,59</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>12,36; 24,1</t>
+          <t>12,58; 23,65</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,0; 5,05</t>
+          <t>-6,34; 5,01</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,25; 14,24</t>
+          <t>3,47; 14,91</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>8,52; 21,86</t>
+          <t>8,98; 22,26</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,53; 10,66</t>
+          <t>-6,45; 10,19</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>9,98; 17,58</t>
+          <t>10,18; 18,11</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>12,64; 21,94</t>
+          <t>12,94; 22,29</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,9; 6,7</t>
+          <t>-4,52; 7,29</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>97,58; 264,29</t>
+          <t>95,44; 267,01</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>83,07; 249,98</t>
+          <t>85,17; 260,09</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-44,5; 53,71</t>
+          <t>-44,73; 52,49</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>11,85; 74,39</t>
+          <t>12,72; 77,25</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>33,19; 108,97</t>
+          <t>33,56; 112,04</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-25,94; 48,21</t>
+          <t>-26,27; 52,62</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>49,01; 112,49</t>
+          <t>51,96; 120,34</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>63,7; 140,81</t>
+          <t>64,76; 141,84</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-26,1; 40,82</t>
+          <t>-24,21; 45,22</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>9,7; 26,69</t>
+          <t>10,47; 27,43</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>37,37; 54,83</t>
+          <t>37,96; 54,15</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-15,98; -4,39</t>
+          <t>-15,87; -4,43</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>5,7; 23,53</t>
+          <t>6,97; 24,07</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>36,9; 54,14</t>
+          <t>36,8; 53,29</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-22,22; -8,91</t>
+          <t>-22,08; -8,97</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>11,0; 23,14</t>
+          <t>11,37; 23,36</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>39,57; 51,65</t>
+          <t>39,7; 51,51</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-17,08; -8,33</t>
+          <t>-17,08; -8,05</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>49,39; 248,74</t>
+          <t>55,58; 234,27</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>186,88; 499,61</t>
+          <t>191,18; 474,24</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-83,97; -34,23</t>
+          <t>-83,06; -32,76</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>24,31; 137,42</t>
+          <t>28,67; 140,61</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>142,7; 329,39</t>
+          <t>144,24; 326,47</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-84,41; -51,22</t>
+          <t>-84,42; -52,3</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>52,73; 151,58</t>
+          <t>53,61; 154,2</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>184,05; 346,51</t>
+          <t>187,53; 347,19</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-79,75; -53,48</t>
+          <t>-79,67; -52,53</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-11,16; 2,48</t>
+          <t>-11,48; 2,64</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-8,77; 5,0</t>
+          <t>-8,9; 5,29</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-15,04; -2,99</t>
+          <t>-14,46; -2,27</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-24,35; -9,8</t>
+          <t>-23,89; -9,57</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-21,45; -6,33</t>
+          <t>-20,91; -5,82</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-24,3; -10,4</t>
+          <t>-23,94; -11,13</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-15,57; -5,4</t>
+          <t>-15,23; -5,77</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-13,27; -3,0</t>
+          <t>-12,95; -2,54</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-17,48; -8,4</t>
+          <t>-17,34; -8,41</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-45,7; 15,05</t>
+          <t>-46,52; 18,1</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-36,45; 29,37</t>
+          <t>-36,39; 30,83</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-62,05; -16,04</t>
+          <t>-61,1; -12,19</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-66,81; -35,18</t>
+          <t>-66,54; -32,98</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-59,23; -22,25</t>
+          <t>-58,47; -21,19</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-65,46; -37,22</t>
+          <t>-64,21; -37,52</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-53,29; -22,34</t>
+          <t>-53,14; -23,98</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-45,66; -12,12</t>
+          <t>-44,76; -10,34</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-59,87; -35,48</t>
+          <t>-59,79; -35,16</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 5,48</t>
+          <t>-3,82; 5,61</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>5,42; 15,26</t>
+          <t>5,7; 15,66</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-11,79; -3,53</t>
+          <t>-11,81; -2,98</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-16,37; -5,97</t>
+          <t>-16,01; -5,63</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-6,82; 4,15</t>
+          <t>-6,79; 3,73</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-28,39; -17,32</t>
+          <t>-28,07; -16,86</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-8,57; -1,46</t>
+          <t>-8,52; -1,63</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>0,39; 8,27</t>
+          <t>0,66; 7,81</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-19,12; -11,67</t>
+          <t>-19,23; -11,85</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-17,0; 31,24</t>
+          <t>-16,91; 31,41</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>24,15; 86,51</t>
+          <t>25,44; 89,7</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-53,39; -19,13</t>
+          <t>-53,01; -15,42</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-43,07; -18,59</t>
+          <t>-42,92; -17,73</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-18,43; 12,99</t>
+          <t>-18,03; 11,67</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-78,8; -54,32</t>
+          <t>-78,64; -53,65</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-29,67; -6,13</t>
+          <t>-28,76; -6,08</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>1,31; 33,0</t>
+          <t>2,14; 30,66</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-65,84; -46,09</t>
+          <t>-65,53; -45,65</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>10,06; 18,83</t>
+          <t>10,16; 19,46</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>10,64; 19,31</t>
+          <t>9,76; 18,9</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 4,44</t>
+          <t>-4,61; 4,49</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>4,12; 13,8</t>
+          <t>3,86; 13,18</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>2,31; 11,59</t>
+          <t>2,77; 11,92</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-7,0; 1,53</t>
+          <t>-7,32; 1,63</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>8,22; 14,82</t>
+          <t>8,13; 14,68</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>7,39; 14,02</t>
+          <t>7,78; 13,86</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-4,7; 1,41</t>
+          <t>-4,6; 1,74</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>49,22; 115,27</t>
+          <t>49,86; 122,3</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>52,24; 117,35</t>
+          <t>47,9; 115,35</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-22,77; 25,64</t>
+          <t>-21,97; 26,23</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>14,14; 59,95</t>
+          <t>13,9; 56,35</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>8,34; 49,45</t>
+          <t>9,92; 51,8</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-25,48; 6,55</t>
+          <t>-26,07; 6,81</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>34,8; 71,16</t>
+          <t>35,25; 72,24</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>31,92; 67,87</t>
+          <t>33,35; 67,68</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-19,57; 7,06</t>
+          <t>-19,65; 8,2</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>10,37; 14,71</t>
+          <t>10,59; 15,02</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>13,31; 17,57</t>
+          <t>13,6; 18,07</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-6,75; -2,83</t>
+          <t>-6,58; -2,71</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>1,52; 6,06</t>
+          <t>1,61; 5,97</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>5,74; 10,18</t>
+          <t>5,67; 10,1</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-14,41; -9,71</t>
+          <t>-14,03; -9,46</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>6,49; 9,64</t>
+          <t>6,46; 9,56</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>9,92; 13,29</t>
+          <t>9,98; 13,15</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-9,77; -6,93</t>
+          <t>-9,77; -6,71</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>54,31; 85,81</t>
+          <t>55,94; 88,94</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>69,72; 101,54</t>
+          <t>71,46; 107,05</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-35,28; -16,22</t>
+          <t>-34,99; -15,7</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>5,35; 23,43</t>
+          <t>5,65; 22,2</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>20,08; 38,01</t>
+          <t>19,61; 37,75</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-49,61; -35,9</t>
+          <t>-49,06; -35,46</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>27,13; 43,57</t>
+          <t>26,74; 42,93</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>42,06; 59,64</t>
+          <t>41,86; 58,72</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-41,33; -30,62</t>
+          <t>-41,2; -30,23</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P71_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P71_R-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>19,08; 32,51</t>
+          <t>19,43; 33,74</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-10,68; -1,37</t>
+          <t>-10,02; -1,13</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,04; 23,77</t>
+          <t>9,62; 23,01</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-11,67; -0,81</t>
+          <t>-12,45; -1,29</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>16,84; 26,6</t>
+          <t>16,22; 26,96</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-9,56; -2,47</t>
+          <t>-9,37; -2,26</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>132,12; 399,41</t>
+          <t>142,56; 433,61</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-77,19; -13,92</t>
+          <t>-73,1; -11,06</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>47,97; 211,65</t>
+          <t>53,12; 195,62</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-63,17; -2,01</t>
+          <t>-66,06; -10,21</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>108,47; 251,36</t>
+          <t>107,55; 255,77</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-62,76; -21,1</t>
+          <t>-62,58; -21,04</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>22,79; 35,32</t>
+          <t>22,85; 34,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,41; 22,13</t>
+          <t>10,12; 22,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-16,81; -6,01</t>
+          <t>-16,88; -5,61</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>14,85; 27,61</t>
+          <t>14,25; 27,01</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,19; 12,7</t>
+          <t>1,02; 12,94</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-26,23; -16,07</t>
+          <t>-26,8; -16,56</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>20,33; 29,06</t>
+          <t>20,07; 29,16</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,28; 15,65</t>
+          <t>6,9; 15,57</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-20,3; -13,01</t>
+          <t>-20,09; -12,76</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>81,2; 164,17</t>
+          <t>84,38; 163,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>32,08; 101,62</t>
+          <t>37,45; 102,94</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-61,88; -27,36</t>
+          <t>-62,96; -26,19</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>37,95; 86,71</t>
+          <t>37,56; 84,26</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,61; 40,46</t>
+          <t>2,91; 42,1</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-68,67; -50,85</t>
+          <t>-69,7; -50,93</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>63,57; 105,88</t>
+          <t>62,36; 105,37</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>23,02; 56,63</t>
+          <t>21,77; 55,94</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-63,1; -45,96</t>
+          <t>-63,29; -46,06</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,07; 6,27</t>
+          <t>-6,5; 5,33</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,63; 14,51</t>
+          <t>1,66; 14,25</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,61; 4,77</t>
+          <t>-7,15; 4,5</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-17,05; -4,33</t>
+          <t>-17,51; -4,94</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,04; 14,33</t>
+          <t>-0,53; 13,64</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-12,39; -0,0</t>
+          <t>-12,19; 0,55</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-10,03; -1,42</t>
+          <t>-10,12; -1,49</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,59; 12,31</t>
+          <t>2,65; 12,47</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-7,72; 0,35</t>
+          <t>-7,95; 0,72</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-31,79; 47,7</t>
+          <t>-34,21; 41,11</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,94; 113,13</t>
+          <t>7,73; 110,78</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-35,25; 38,11</t>
+          <t>-37,5; 34,37</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-60,03; -19,69</t>
+          <t>-59,96; -22,15</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 64,97</t>
+          <t>-1,82; 63,51</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-41,97; 0,08</t>
+          <t>-42,62; 2,29</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-43,47; -7,45</t>
+          <t>-42,86; -7,57</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>10,52; 65,13</t>
+          <t>11,57; 66,14</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-32,98; 2,44</t>
+          <t>-32,73; 4,51</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>14,35; 24,59</t>
+          <t>14,36; 24,59</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>12,58; 23,65</t>
+          <t>12,0; 24,24</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,34; 5,01</t>
+          <t>-6,63; 5,05</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,47; 14,91</t>
+          <t>2,9; 14,08</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>8,98; 22,26</t>
+          <t>9,09; 22,73</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,45; 10,19</t>
+          <t>-6,61; 9,6</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>10,18; 18,11</t>
+          <t>10,09; 17,6</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>12,94; 22,29</t>
+          <t>12,51; 21,36</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 7,29</t>
+          <t>-4,44; 6,7</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>95,44; 267,01</t>
+          <t>90,71; 255,87</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>85,17; 260,09</t>
+          <t>80,59; 254,28</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-44,73; 52,49</t>
+          <t>-46,05; 50,13</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>12,72; 77,25</t>
+          <t>10,75; 70,76</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>33,56; 112,04</t>
+          <t>36,18; 114,09</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-26,27; 52,62</t>
+          <t>-26,85; 47,02</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>51,96; 120,34</t>
+          <t>51,9; 113,67</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>64,76; 141,84</t>
+          <t>64,01; 137,89</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-24,21; 45,22</t>
+          <t>-23,27; 40,95</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>10,47; 27,43</t>
+          <t>10,85; 28,98</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>37,96; 54,15</t>
+          <t>38,43; 55,17</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-15,87; -4,43</t>
+          <t>-15,46; -3,93</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>6,97; 24,07</t>
+          <t>6,38; 23,97</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>36,8; 53,29</t>
+          <t>36,69; 53,57</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-22,08; -8,97</t>
+          <t>-21,83; -9,33</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>11,37; 23,36</t>
+          <t>10,61; 22,76</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>39,7; 51,51</t>
+          <t>39,55; 52,08</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-17,08; -8,05</t>
+          <t>-17,05; -8,27</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>55,58; 234,27</t>
+          <t>53,26; 255,83</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>191,18; 474,24</t>
+          <t>201,92; 532,85</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-83,06; -32,76</t>
+          <t>-81,58; -28,02</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>28,67; 140,61</t>
+          <t>24,82; 145,82</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>144,24; 326,47</t>
+          <t>141,94; 340,31</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-84,42; -52,3</t>
+          <t>-84,8; -54,19</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>53,61; 154,2</t>
+          <t>49,88; 153,15</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>187,53; 347,19</t>
+          <t>176,65; 345,6</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-79,67; -52,53</t>
+          <t>-80,38; -54,12</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-11,48; 2,64</t>
+          <t>-10,26; 2,79</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-8,9; 5,29</t>
+          <t>-9,5; 5,19</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-14,46; -2,27</t>
+          <t>-14,42; -2,3</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-23,89; -9,57</t>
+          <t>-23,84; -9,79</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-20,91; -5,82</t>
+          <t>-20,72; -6,23</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-23,94; -11,13</t>
+          <t>-23,59; -10,63</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-15,23; -5,77</t>
+          <t>-15,22; -5,77</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-12,95; -2,54</t>
+          <t>-13,09; -2,65</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-17,34; -8,41</t>
+          <t>-17,08; -8,47</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-46,52; 18,1</t>
+          <t>-44,1; 16,14</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-36,39; 30,83</t>
+          <t>-38,77; 29,25</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-61,1; -12,19</t>
+          <t>-60,51; -13,18</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-66,54; -32,98</t>
+          <t>-66,54; -32,63</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-58,47; -21,19</t>
+          <t>-58,25; -21,07</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-64,21; -37,52</t>
+          <t>-64,59; -37,52</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-53,14; -23,98</t>
+          <t>-52,56; -23,38</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-44,76; -10,34</t>
+          <t>-44,6; -10,73</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-59,79; -35,16</t>
+          <t>-58,88; -35,1</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 5,61</t>
+          <t>-4,0; 6,0</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>5,7; 15,66</t>
+          <t>4,84; 15,49</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-11,81; -2,98</t>
+          <t>-12,56; -3,21</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-16,01; -5,63</t>
+          <t>-15,54; -5,59</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-6,79; 3,73</t>
+          <t>-6,36; 4,14</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-28,07; -16,86</t>
+          <t>-28,4; -17,54</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-8,52; -1,63</t>
+          <t>-8,71; -1,43</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>0,66; 7,81</t>
+          <t>0,41; 7,91</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-19,23; -11,85</t>
+          <t>-19,0; -11,58</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-16,91; 31,41</t>
+          <t>-17,99; 33,59</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>25,44; 89,7</t>
+          <t>21,32; 88,88</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-53,01; -15,42</t>
+          <t>-53,73; -16,39</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-42,92; -17,73</t>
+          <t>-41,57; -17,29</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-18,03; 11,67</t>
+          <t>-16,81; 13,42</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-78,64; -53,65</t>
+          <t>-79,52; -54,76</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-28,76; -6,08</t>
+          <t>-29,13; -5,73</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>2,14; 30,66</t>
+          <t>1,67; 31,01</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-65,53; -45,65</t>
+          <t>-65,34; -45,02</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>10,16; 19,46</t>
+          <t>10,04; 19,2</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>9,76; 18,9</t>
+          <t>10,21; 19,22</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-4,61; 4,49</t>
+          <t>-4,26; 4,7</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>3,86; 13,18</t>
+          <t>4,01; 13,37</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>2,77; 11,92</t>
+          <t>2,38; 11,85</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-7,32; 1,63</t>
+          <t>-7,79; 1,12</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>8,13; 14,68</t>
+          <t>8,51; 15,09</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>7,78; 13,86</t>
+          <t>7,58; 14,05</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-4,6; 1,74</t>
+          <t>-5,06; 1,53</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>49,86; 122,3</t>
+          <t>49,18; 116,11</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>47,9; 115,35</t>
+          <t>48,71; 116,26</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-21,97; 26,23</t>
+          <t>-21,45; 28,58</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>13,9; 56,35</t>
+          <t>14,03; 57,73</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>9,92; 51,8</t>
+          <t>8,35; 51,31</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-26,07; 6,81</t>
+          <t>-28,55; 5,01</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>35,25; 72,24</t>
+          <t>34,92; 74,27</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>33,35; 67,68</t>
+          <t>32,03; 69,09</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-19,65; 8,2</t>
+          <t>-21,43; 7,71</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>10,59; 15,02</t>
+          <t>10,5; 14,8</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>13,6; 18,07</t>
+          <t>13,03; 17,53</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-6,58; -2,71</t>
+          <t>-6,88; -2,98</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>1,61; 5,97</t>
+          <t>1,62; 6,09</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>5,67; 10,1</t>
+          <t>5,67; 10,15</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-14,03; -9,46</t>
+          <t>-14,28; -9,47</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>6,46; 9,56</t>
+          <t>6,64; 9,61</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>9,98; 13,15</t>
+          <t>9,96; 13,08</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-9,77; -6,71</t>
+          <t>-9,91; -6,71</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>55,94; 88,94</t>
+          <t>54,05; 86,69</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>71,46; 107,05</t>
+          <t>68,16; 103,49</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-34,99; -15,7</t>
+          <t>-36,14; -17,46</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>5,65; 22,2</t>
+          <t>5,37; 22,54</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>19,61; 37,75</t>
+          <t>19,59; 37,85</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-49,06; -35,46</t>
+          <t>-49,8; -35,72</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>26,74; 42,93</t>
+          <t>27,52; 42,98</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>41,86; 58,72</t>
+          <t>41,99; 58,88</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-41,2; -30,23</t>
+          <t>-41,29; -30,13</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P71_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P71_R-Provincia-trans_camb.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>28,8</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-5,38</t>
+          <t>-5,58</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>24,84</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-6,35</t>
+          <t>-5,62</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>26,87</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-5,77</t>
+          <t>-5,62</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,43; 35,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-10,02; -1,13</t>
+          <t>-10,17; -1,31</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,05; 32,29</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-12,45; -1,29</t>
+          <t>-12,35; 0,07</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,93; 32,06</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-9,37; -2,26</t>
+          <t>-9,36; -1,73</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>270,89%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -748,12 +748,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-50,56%</t>
+          <t>-52,53%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>166,92%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -763,12 +763,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-42,66%</t>
+          <t>-37,75%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>211,44%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-45,44%</t>
+          <t>-44,25%</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>151,03; 469,36</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -801,12 +801,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-73,1; -11,06</t>
+          <t>-74,74; -13,32</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>88,55; 283,96</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -816,12 +816,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-66,06; -10,21</t>
+          <t>-64,82; 4,14</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>141,96; 318,16</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-62,58; -21,04</t>
+          <t>-62,14; -13,62</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-11,74</t>
+          <t>-11,7</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-21,41</t>
+          <t>-21,37</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-16,59</t>
+          <t>-16,56</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-16,88; -5,61</t>
+          <t>-16,9; -5,47</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-26,8; -16,56</t>
+          <t>-26,67; -16,48</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-20,09; -12,76</t>
+          <t>-20,06; -12,58</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-47,73%</t>
+          <t>-47,54%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-61,03%</t>
+          <t>-60,9%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-55,54%</t>
+          <t>-55,43%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-62,96; -26,19</t>
+          <t>-62,98; -24,98</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-69,7; -50,93</t>
+          <t>-69,62; -50,64</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-63,29; -46,06</t>
+          <t>-63,27; -45,55</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,23</t>
+          <t>-1,15</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-6,01</t>
+          <t>-5,97</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,15; 4,5</t>
+          <t>-7,12; 4,79</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-12,19; 0,55</t>
+          <t>-12,14; 0,65</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-7,95; 0,72</t>
+          <t>-7,94; 0,75</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-7,58%</t>
+          <t>-7,12%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-23,53%</t>
+          <t>-23,37%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-17,03%</t>
+          <t>-17,02%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-37,5; 34,37</t>
+          <t>-37,26; 36,63</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-42,62; 2,29</t>
+          <t>-42,49; 2,77</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-32,73; 4,51</t>
+          <t>-32,77; 4,05</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>19,63</t>
+          <t>13,49</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1290,12 +1290,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-1,05</t>
+          <t>-1,38</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>8,66</t>
+          <t>2,72</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,37</t>
+          <t>9,77</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>14,05</t>
+          <t>8,01</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>6,19</t>
         </is>
       </c>
     </row>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>14,36; 24,59</t>
+          <t>7,81; 19,16</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,63; 5,05</t>
+          <t>-6,75; 4,28</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,9; 14,08</t>
+          <t>-3,45; 8,93</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1358,12 +1358,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,61; 9,6</t>
+          <t>-5,13; 37,26</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>10,09; 17,6</t>
+          <t>3,87; 12,47</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 6,7</t>
+          <t>-3,0; 29,08</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>162,96%</t>
+          <t>111,95%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1396,12 +1396,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-8,75%</t>
+          <t>-11,46%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>37,57%</t>
+          <t>11,81%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1411,12 +1411,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-1,61%</t>
+          <t>42,37%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>79,58%</t>
+          <t>45,36%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>0,05%</t>
+          <t>35,06%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>90,71; 255,87</t>
+          <t>56,01; 203,04</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1449,12 +1449,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-46,05; 50,13</t>
+          <t>-46,96; 43,82</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>10,75; 70,76</t>
+          <t>-13,42; 45,55</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1464,12 +1464,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-26,85; 47,02</t>
+          <t>-21,51; 183,66</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>51,9; 113,67</t>
+          <t>19,29; 78,84</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-23,27; 40,95</t>
+          <t>-16,34; 194,65</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-9,76</t>
+          <t>-9,77</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-15,4</t>
+          <t>-16,05</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-12,55</t>
+          <t>-12,93</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-15,46; -3,93</t>
+          <t>-15,44; -3,97</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-21,83; -9,33</t>
+          <t>-22,74; -9,9</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-17,05; -8,27</t>
+          <t>-17,37; -8,73</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-65,68%</t>
+          <t>-65,77%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-72,97%</t>
+          <t>-76,07%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-69,76%</t>
+          <t>-71,85%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-81,58; -28,02</t>
+          <t>-81,57; -28,88</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-84,8; -54,19</t>
+          <t>-88,76; -59,0</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-80,38; -54,12</t>
+          <t>-82,82; -57,37</t>
         </is>
       </c>
     </row>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-8,65</t>
+          <t>-8,58</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1737,7 +1737,7 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-17,0</t>
+          <t>-16,99</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-12,89</t>
+          <t>-12,88</t>
         </is>
       </c>
     </row>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-14,42; -2,3</t>
+          <t>-14,45; -2,3</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-23,59; -10,63</t>
+          <t>-23,63; -10,72</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-17,08; -8,47</t>
+          <t>-17,06; -8,49</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-42,25%</t>
+          <t>-41,88%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-52,8%</t>
+          <t>-52,75%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-48,83%</t>
+          <t>-48,79%</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-60,51; -13,18</t>
+          <t>-60,41; -12,37</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-64,59; -37,52</t>
+          <t>-64,69; -37,58</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-58,88; -35,1</t>
+          <t>-58,73; -34,94</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-7,68</t>
+          <t>-7,86</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-22,3</t>
+          <t>-23,86</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-15,14</t>
+          <t>-16,12</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-12,56; -3,21</t>
+          <t>-12,75; -3,41</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-28,4; -17,54</t>
+          <t>-31,55; -18,32</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-19,0; -11,58</t>
+          <t>-21,2; -12,48</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-37,94%</t>
+          <t>-38,87%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-64,55%</t>
+          <t>-69,05%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-55,01%</t>
+          <t>-58,58%</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-53,73; -16,39</t>
+          <t>-54,86; -17,32</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-79,52; -54,76</t>
+          <t>-86,73; -55,58</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-65,34; -45,02</t>
+          <t>-73,58; -48,03</t>
         </is>
       </c>
     </row>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>-3,66</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>-3,29</t>
+          <t>-3,1</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>-1,53</t>
+          <t>-3,95</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 4,7</t>
+          <t>-13,24; 2,98</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-7,79; 1,12</t>
+          <t>-7,5; 1,25</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 1,53</t>
+          <t>-11,41; 0,2</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>1,95%</t>
+          <t>-19,8%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>-12,89%</t>
+          <t>-12,16%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>-6,95%</t>
+          <t>-17,9%</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-21,45; 28,58</t>
+          <t>-65,8; 16,92</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-28,55; 5,01</t>
+          <t>-27,56; 5,57</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-21,43; 7,71</t>
+          <t>-49,96; 0,92</t>
         </is>
       </c>
     </row>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>-4,84</t>
+          <t>-5,95</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>-11,77</t>
+          <t>-11,15</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>-8,28</t>
+          <t>-8,54</t>
         </is>
       </c>
     </row>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-6,88; -2,98</t>
+          <t>-9,08; -3,94</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-14,28; -9,47</t>
+          <t>-14,41; -5,76</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-9,91; -6,71</t>
+          <t>-10,69; -5,66</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>-26,8%</t>
+          <t>-32,9%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>-42,29%</t>
+          <t>-40,07%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>-35,98%</t>
+          <t>-37,1%</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-36,14; -17,46</t>
+          <t>-48,14; -23,48</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
@@ -2544,7 +2544,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-49,8; -35,72</t>
+          <t>-50,32; -20,26</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-41,29; -30,13</t>
+          <t>-44,96; -24,1</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P71_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P71_R-Provincia-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>21,43; 35,7</t>
+          <t>21,09; 35,66</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>19,43; 33,74</t>
+          <t>18,83; 32,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-10,17; -1,31</t>
+          <t>-10,06; -1,33</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>17,05; 32,29</t>
+          <t>16,32; 32,41</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,62; 23,01</t>
+          <t>9,15; 24,45</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-12,35; 0,07</t>
+          <t>-11,77; 1,44</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>21,93; 32,06</t>
+          <t>21,35; 31,47</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>16,22; 26,96</t>
+          <t>16,57; 26,32</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-9,36; -1,73</t>
+          <t>-9,12; -1,55</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>151,03; 469,36</t>
+          <t>151,14; 466,42</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>142,56; 433,61</t>
+          <t>133,33; 407,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-74,74; -13,32</t>
+          <t>-74,79; -14,39</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>88,55; 283,96</t>
+          <t>88,89; 295,7</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>53,12; 195,62</t>
+          <t>47,99; 204,02</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-64,82; 4,14</t>
+          <t>-62,88; 20,67</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>141,96; 318,16</t>
+          <t>142,51; 303,82</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>107,55; 255,77</t>
+          <t>109,59; 252,56</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-62,14; -13,62</t>
+          <t>-61,27; -12,6</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>22,85; 34,88</t>
+          <t>22,41; 35,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,12; 22,19</t>
+          <t>10,43; 21,87</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-16,9; -5,47</t>
+          <t>-17,54; -6,28</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>14,25; 27,01</t>
+          <t>13,93; 27,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,02; 12,94</t>
+          <t>0,66; 13,15</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-26,67; -16,48</t>
+          <t>-26,86; -16,44</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>20,07; 29,16</t>
+          <t>20,41; 29,51</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,9; 15,57</t>
+          <t>6,95; 15,77</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-20,06; -12,58</t>
+          <t>-20,06; -12,43</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>84,38; 163,4</t>
+          <t>80,68; 164,82</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>37,45; 102,94</t>
+          <t>37,57; 100,61</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-62,98; -24,98</t>
+          <t>-64,16; -27,86</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>37,56; 84,26</t>
+          <t>36,68; 85,25</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,91; 42,1</t>
+          <t>1,99; 42,3</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-69,62; -50,64</t>
+          <t>-69,74; -51,17</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>62,36; 105,37</t>
+          <t>64,5; 107,52</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>21,77; 55,94</t>
+          <t>22,05; 57,05</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-63,27; -45,55</t>
+          <t>-63,52; -45,46</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,5; 5,33</t>
+          <t>-6,22; 5,75</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,66; 14,25</t>
+          <t>1,06; 14,01</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,12; 4,79</t>
+          <t>-7,3; 5,5</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-17,51; -4,94</t>
+          <t>-18,22; -5,38</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 13,64</t>
+          <t>-0,31; 14,01</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-12,14; 0,65</t>
+          <t>-11,5; 0,33</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-10,12; -1,49</t>
+          <t>-10,34; -2,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,65; 12,47</t>
+          <t>2,85; 12,56</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-7,94; 0,75</t>
+          <t>-7,9; 0,55</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-34,21; 41,11</t>
+          <t>-32,59; 43,45</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,73; 110,78</t>
+          <t>5,66; 106,06</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-37,26; 36,63</t>
+          <t>-37,27; 42,15</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-59,96; -22,15</t>
+          <t>-60,52; -22,52</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 63,51</t>
+          <t>-0,74; 64,33</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-42,49; 2,77</t>
+          <t>-40,83; 1,41</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-42,86; -7,57</t>
+          <t>-44,13; -10,1</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>11,57; 66,14</t>
+          <t>12,63; 66,05</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-32,77; 4,05</t>
+          <t>-33,49; 3,05</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7,81; 19,16</t>
+          <t>7,52; 18,8</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>12,0; 24,24</t>
+          <t>12,24; 24,48</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,75; 4,28</t>
+          <t>-6,35; 4,45</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 8,93</t>
+          <t>-2,95; 9,59</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>9,09; 22,73</t>
+          <t>8,22; 22,07</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,13; 37,26</t>
+          <t>-4,52; 35,38</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,87; 12,47</t>
+          <t>3,36; 11,69</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>12,51; 21,36</t>
+          <t>12,39; 21,61</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 29,08</t>
+          <t>-3,39; 28,32</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>56,01; 203,04</t>
+          <t>50,16; 194,22</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>80,59; 254,28</t>
+          <t>80,79; 252,53</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-46,96; 43,82</t>
+          <t>-45,46; 46,77</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-13,42; 45,55</t>
+          <t>-11,92; 48,01</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>36,18; 114,09</t>
+          <t>31,24; 110,61</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-21,51; 183,66</t>
+          <t>-19,53; 183,87</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>19,29; 78,84</t>
+          <t>16,86; 73,79</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>64,01; 137,89</t>
+          <t>62,59; 138,06</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-16,34; 194,65</t>
+          <t>-18,55; 169,11</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>10,85; 28,98</t>
+          <t>11,28; 27,5</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>38,43; 55,17</t>
+          <t>37,88; 54,48</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-15,44; -3,97</t>
+          <t>-15,52; -4,48</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>6,38; 23,97</t>
+          <t>5,25; 23,97</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>36,69; 53,57</t>
+          <t>36,34; 52,98</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-22,74; -9,9</t>
+          <t>-22,82; -10,17</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>10,61; 22,76</t>
+          <t>10,53; 22,68</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>39,55; 52,08</t>
+          <t>39,74; 51,16</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-17,37; -8,73</t>
+          <t>-17,87; -9,02</t>
         </is>
       </c>
     </row>
@@ -1655,54 +1655,54 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>53,26; 255,83</t>
+          <t>62,3; 245,14</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>201,92; 532,85</t>
+          <t>206,13; 487,71</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-81,57; -28,88</t>
+          <t>-83,35; -35,76</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>24,82; 145,82</t>
+          <t>18,24; 139,89</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>141,94; 340,31</t>
+          <t>134,37; 326,65</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-88,76; -59,0</t>
+          <t>-88,47; -60,01</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>49,88; 153,15</t>
+          <t>48,66; 147,48</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>176,65; 345,6</t>
+          <t>184,94; 341,02</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-82,82; -57,37</t>
+          <t>-83,38; -57,63</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-10,26; 2,79</t>
+          <t>-11,04; 2,16</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-9,5; 5,19</t>
+          <t>-8,61; 4,83</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-14,45; -2,3</t>
+          <t>-14,95; -2,83</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-23,84; -9,79</t>
+          <t>-24,0; -9,66</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-20,72; -6,23</t>
+          <t>-20,41; -5,56</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-23,63; -10,72</t>
+          <t>-23,2; -9,7</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-15,22; -5,77</t>
+          <t>-15,64; -5,14</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-13,09; -2,65</t>
+          <t>-12,81; -2,91</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-17,06; -8,49</t>
+          <t>-17,87; -8,43</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-44,1; 16,14</t>
+          <t>-45,39; 12,85</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-38,77; 29,25</t>
+          <t>-35,62; 30,11</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-60,41; -12,37</t>
+          <t>-62,96; -15,08</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-66,54; -32,63</t>
+          <t>-65,9; -33,34</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-58,25; -21,07</t>
+          <t>-57,79; -20,54</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-64,69; -37,58</t>
+          <t>-64,37; -34,47</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-52,56; -23,38</t>
+          <t>-52,88; -20,85</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-44,6; -10,73</t>
+          <t>-44,46; -12,4</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-58,73; -34,94</t>
+          <t>-60,17; -34,19</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 6,0</t>
+          <t>-3,69; 5,68</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>4,84; 15,49</t>
+          <t>5,53; 15,44</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-12,75; -3,41</t>
+          <t>-12,62; -3,47</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-15,54; -5,59</t>
+          <t>-16,28; -5,97</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-6,36; 4,14</t>
+          <t>-6,78; 3,96</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-31,55; -18,32</t>
+          <t>-32,64; -18,79</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-8,71; -1,43</t>
+          <t>-9,01; -1,67</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>0,41; 7,91</t>
+          <t>0,58; 7,91</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-21,2; -12,48</t>
+          <t>-21,31; -12,62</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-17,99; 33,59</t>
+          <t>-16,59; 32,26</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>21,32; 88,88</t>
+          <t>23,19; 86,05</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-54,86; -17,32</t>
+          <t>-55,31; -18,68</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-41,57; -17,29</t>
+          <t>-43,22; -18,59</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-16,81; 13,42</t>
+          <t>-18,43; 12,74</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-86,73; -55,58</t>
+          <t>-83,44; -56,27</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-29,13; -5,73</t>
+          <t>-30,48; -6,35</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>1,67; 31,01</t>
+          <t>1,89; 30,27</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-73,58; -48,03</t>
+          <t>-74,33; -48,47</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>10,04; 19,2</t>
+          <t>9,68; 18,69</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>10,21; 19,22</t>
+          <t>10,15; 19,27</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-13,24; 2,98</t>
+          <t>-13,01; 3,17</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>4,01; 13,37</t>
+          <t>4,3; 13,61</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>2,38; 11,85</t>
+          <t>2,76; 12,12</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-7,5; 1,25</t>
+          <t>-7,21; 1,28</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>8,51; 15,09</t>
+          <t>8,41; 14,78</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>7,58; 14,05</t>
+          <t>7,41; 13,98</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-11,41; 0,2</t>
+          <t>-11,04; 0,26</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>49,18; 116,11</t>
+          <t>45,57; 114,74</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>48,71; 116,26</t>
+          <t>47,97; 117,55</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-65,8; 16,92</t>
+          <t>-64,2; 17,71</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>14,03; 57,73</t>
+          <t>15,03; 58,58</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>8,35; 51,31</t>
+          <t>9,55; 50,99</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-27,56; 5,57</t>
+          <t>-25,94; 6,04</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>34,92; 74,27</t>
+          <t>35,25; 71,95</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>32,03; 69,09</t>
+          <t>31,23; 68,46</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-49,96; 0,92</t>
+          <t>-47,56; 1,02</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>10,5; 14,8</t>
+          <t>10,51; 14,59</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>13,03; 17,53</t>
+          <t>13,3; 17,53</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-9,08; -3,94</t>
+          <t>-8,92; -4,04</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>1,62; 6,09</t>
+          <t>1,48; 6,09</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>5,67; 10,15</t>
+          <t>5,86; 10,37</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-14,41; -5,76</t>
+          <t>-14,21; -5,86</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>6,64; 9,61</t>
+          <t>6,42; 9,65</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>9,96; 13,08</t>
+          <t>9,91; 13,22</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-10,69; -5,66</t>
+          <t>-10,67; -5,45</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>54,05; 86,69</t>
+          <t>54,41; 84,54</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>68,16; 103,49</t>
+          <t>69,88; 103,67</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-48,14; -23,48</t>
+          <t>-47,77; -23,5</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>5,37; 22,54</t>
+          <t>5,04; 22,74</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>19,59; 37,85</t>
+          <t>20,02; 38,58</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-50,32; -20,26</t>
+          <t>-49,98; -21,82</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>27,52; 42,98</t>
+          <t>27,03; 43,52</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>41,99; 58,88</t>
+          <t>41,19; 59,59</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-44,96; -24,1</t>
+          <t>-44,86; -23,19</t>
         </is>
       </c>
     </row>
